--- a/tests/data/import/xlsx/clean/xlsx/test_file.xlsx
+++ b/tests/data/import/xlsx/clean/xlsx/test_file.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="data" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="meta" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t xml:space="preserve">dipl</t>
   </si>
@@ -80,6 +81,24 @@
   </si>
   <si>
     <t xml:space="preserve">York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
   </si>
 </sst>
 </file>
@@ -220,11 +239,11 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="9.13"/>
   </cols>
@@ -346,11 +365,59 @@
     <mergeCell ref="D6:D7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>